--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 01-24.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 01-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO CÁO BẢO HÀNH" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
   <si>
     <t>TG102LE-4G</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Kết quả</t>
   </si>
   <si>
-    <t>Kiểm tra và cài đặt config cho đại lý</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -206,12 +203,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Set config, set lại MK</t>
-  </si>
-  <si>
-    <t>Set cấu hình</t>
-  </si>
-  <si>
     <t>Nạp Firmware</t>
   </si>
   <si>
@@ -354,6 +345,75 @@
   </si>
   <si>
     <t>Xử lý phần cứng, nâng cấp 4G</t>
+  </si>
+  <si>
+    <t>HUB V1.3</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW set lại vị trí dây</t>
+  </si>
+  <si>
+    <t>Test lại cảm biến nhiệt độ</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW và set config cho đại lý</t>
+  </si>
+  <si>
+    <t>Mã TB</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tên viết tắt</t>
+  </si>
+  <si>
+    <t>TG102LE-4G STM</t>
+  </si>
+  <si>
+    <t>LE4</t>
+  </si>
+  <si>
+    <t>TG102LEu Thiết bị nâng cấp từ TG102LE</t>
+  </si>
+  <si>
+    <t>LEu</t>
+  </si>
+  <si>
+    <t>TG102LE-4G CE (Dùng module A7600CE)</t>
+  </si>
+  <si>
+    <t>LEce</t>
+  </si>
+  <si>
+    <t>TG102LE-4G GD</t>
+  </si>
+  <si>
+    <t>Le4</t>
+  </si>
+  <si>
+    <t>TG102LE-4G A7672S</t>
+  </si>
+  <si>
+    <t>LEc</t>
+  </si>
+  <si>
+    <t>TG102LE-4G A7672S gotrack S400e</t>
+  </si>
+  <si>
+    <t>LEa</t>
+  </si>
+  <si>
+    <t>TG102LE-4G A7672S gotrack S400</t>
+  </si>
+  <si>
+    <t>LEb</t>
+  </si>
+  <si>
+    <t>TG102E-4G A7672S</t>
+  </si>
+  <si>
+    <t>E4c</t>
   </si>
 </sst>
 </file>
@@ -458,7 +518,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4E2A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,36 +865,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,60 +1016,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,16 +1306,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
@@ -1245,91 +1322,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="69" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="40" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="73" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="30">
         <v>4</v>
@@ -1337,11 +1414,11 @@
       <c r="E4" s="30">
         <v>0</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="73" t="s">
-        <v>66</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="J4" s="30">
         <v>0</v>
@@ -1355,20 +1432,20 @@
       <c r="M4" s="30">
         <v>0</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="74" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="74"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="73" t="s">
-        <v>67</v>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="30">
         <v>0</v>
@@ -1376,11 +1453,11 @@
       <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="73" t="s">
-        <v>67</v>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="J5" s="30">
         <v>0</v>
@@ -1394,20 +1471,20 @@
       <c r="M5" s="30">
         <v>0</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="74" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="74"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="29">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="73" t="s">
-        <v>68</v>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="30">
         <v>0</v>
@@ -1415,11 +1492,11 @@
       <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="73" t="s">
-        <v>68</v>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="30">
         <v>0</v>
@@ -1433,20 +1510,20 @@
       <c r="M6" s="30">
         <v>0</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="74" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="74"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="29">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="73" t="s">
-        <v>69</v>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="D7" s="30">
         <v>17</v>
@@ -1454,11 +1531,11 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="73" t="s">
-        <v>69</v>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="30">
         <v>3</v>
@@ -1472,20 +1549,20 @@
       <c r="M7" s="30">
         <v>0</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="74" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="74"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="73" t="s">
-        <v>70</v>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="30">
         <v>0</v>
@@ -1493,11 +1570,11 @@
       <c r="E8" s="30">
         <v>0</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="73" t="s">
-        <v>70</v>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="J8" s="30">
         <v>0</v>
@@ -1511,16 +1588,16 @@
       <c r="M8" s="30">
         <v>0</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="73" t="s">
-        <v>71</v>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="30">
         <v>1</v>
@@ -1528,11 +1605,11 @@
       <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="73" t="s">
-        <v>71</v>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="30">
         <v>0</v>
@@ -1546,16 +1623,16 @@
       <c r="M9" s="30">
         <v>0</v>
       </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="73" t="s">
-        <v>72</v>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="30">
         <v>0</v>
@@ -1563,11 +1640,11 @@
       <c r="E10" s="30">
         <v>0</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="73" t="s">
-        <v>72</v>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="J10" s="30">
         <v>0</v>
@@ -1581,15 +1658,15 @@
       <c r="M10" s="30">
         <v>0</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="30">
@@ -1598,10 +1675,10 @@
       <c r="E11" s="30">
         <v>19</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="73" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="30">
@@ -1616,16 +1693,16 @@
       <c r="M11" s="30">
         <v>19</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="73" t="s">
-        <v>73</v>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="30">
         <v>0</v>
@@ -1633,11 +1710,11 @@
       <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="73" t="s">
-        <v>73</v>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="J12" s="30">
         <v>0</v>
@@ -1651,16 +1728,16 @@
       <c r="M12" s="30">
         <v>0</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="73" t="s">
-        <v>74</v>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="30">
         <v>17</v>
@@ -1668,11 +1745,11 @@
       <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="73" t="s">
-        <v>74</v>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="30">
         <v>3</v>
@@ -1686,15 +1763,15 @@
       <c r="M13" s="30">
         <v>0</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="73" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="30">
@@ -1703,10 +1780,10 @@
       <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="73" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="30">
@@ -1721,15 +1798,15 @@
       <c r="M14" s="30">
         <v>0</v>
       </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="73" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="30">
@@ -1738,10 +1815,10 @@
       <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="73" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="40" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="30">
@@ -1756,16 +1833,16 @@
       <c r="M15" s="30">
         <v>1</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="73" t="s">
-        <v>75</v>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="30">
         <v>4</v>
@@ -1773,10 +1850,10 @@
       <c r="E16" s="30">
         <v>2</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="73" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="40" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="30">
@@ -1791,15 +1868,15 @@
       <c r="M16" s="30">
         <v>15</v>
       </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="73" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="30">
@@ -1808,11 +1885,11 @@
       <c r="E17" s="30">
         <v>21</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="73" t="s">
-        <v>75</v>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="J17" s="30">
         <v>0</v>
@@ -1826,15 +1903,15 @@
       <c r="M17" s="30">
         <v>2</v>
       </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="73" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="30">
@@ -1843,10 +1920,10 @@
       <c r="E18" s="30">
         <v>0</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="73" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="40" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="30">
@@ -1861,70 +1938,70 @@
       <c r="M18" s="30">
         <v>0</v>
       </c>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="76">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="48">
         <v>2</v>
       </c>
-      <c r="E19" s="76">
-        <v>0</v>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="76">
+      <c r="E19" s="48">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="48">
         <v>1</v>
       </c>
-      <c r="K19" s="76">
-        <v>0</v>
-      </c>
-      <c r="L19" s="76">
+      <c r="K19" s="48">
+        <v>0</v>
+      </c>
+      <c r="L19" s="48">
         <v>1</v>
       </c>
-      <c r="M19" s="76">
-        <v>0</v>
-      </c>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
+      <c r="M19" s="48">
+        <v>0</v>
+      </c>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="77" t="s">
-        <v>78</v>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="30">
         <v>28</v>
@@ -1932,11 +2009,11 @@
       <c r="E21" s="30">
         <v>3</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="77" t="s">
-        <v>78</v>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="J21" s="30">
         <v>1</v>
@@ -1950,29 +2027,29 @@
       <c r="M21" s="30">
         <v>6</v>
       </c>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="29">
         <v>130</v>
       </c>
       <c r="E22" s="30">
         <v>47</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="78" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="29">
         <v>22</v>
       </c>
@@ -1985,103 +2062,103 @@
       <c r="M22" s="29">
         <v>43</v>
       </c>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="70" t="s">
+      <c r="A24" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="H24" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="I24" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="J24" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="K24" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="L24" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="M24" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="N24" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="O24" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="70" t="s">
+      <c r="P24" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q24" s="71"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="73" t="s">
-        <v>66</v>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="D26" s="29">
         <v>1</v>
@@ -2122,13 +2199,13 @@
       <c r="P26" s="29">
         <v>0</v>
       </c>
-      <c r="Q26" s="71"/>
+      <c r="Q26" s="39"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="73" t="s">
-        <v>67</v>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="D27" s="29">
         <v>0</v>
@@ -2169,13 +2246,13 @@
       <c r="P27" s="29">
         <v>0</v>
       </c>
-      <c r="Q27" s="71"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="73" t="s">
-        <v>68</v>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="29">
         <v>0</v>
@@ -2216,13 +2293,13 @@
       <c r="P28" s="29">
         <v>0</v>
       </c>
-      <c r="Q28" s="71"/>
+      <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="73" t="s">
-        <v>69</v>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="D29" s="29">
         <v>1</v>
@@ -2263,13 +2340,13 @@
       <c r="P29" s="29">
         <v>0</v>
       </c>
-      <c r="Q29" s="71"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="73" t="s">
-        <v>70</v>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="29">
         <v>0</v>
@@ -2310,13 +2387,13 @@
       <c r="P30" s="29">
         <v>0</v>
       </c>
-      <c r="Q30" s="71"/>
+      <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="73" t="s">
-        <v>71</v>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="D31" s="29">
         <v>0</v>
@@ -2357,13 +2434,13 @@
       <c r="P31" s="29">
         <v>0</v>
       </c>
-      <c r="Q31" s="71"/>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="73" t="s">
-        <v>72</v>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="D32" s="29">
         <v>0</v>
@@ -2404,12 +2481,12 @@
       <c r="P32" s="29">
         <v>0</v>
       </c>
-      <c r="Q32" s="71"/>
+      <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="73" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="29">
@@ -2451,13 +2528,13 @@
       <c r="P33" s="29">
         <v>0</v>
       </c>
-      <c r="Q33" s="71"/>
+      <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="73" t="s">
-        <v>73</v>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="D34" s="29">
         <v>0</v>
@@ -2498,13 +2575,13 @@
       <c r="P34" s="29">
         <v>0</v>
       </c>
-      <c r="Q34" s="71"/>
+      <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="73" t="s">
-        <v>74</v>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="D35" s="29">
         <v>2</v>
@@ -2545,12 +2622,12 @@
       <c r="P35" s="29">
         <v>0</v>
       </c>
-      <c r="Q35" s="71"/>
+      <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="73" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="29">
@@ -2592,12 +2669,12 @@
       <c r="P36" s="29">
         <v>0</v>
       </c>
-      <c r="Q36" s="71"/>
+      <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="73" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="29">
@@ -2639,13 +2716,13 @@
       <c r="P37" s="29">
         <v>0</v>
       </c>
-      <c r="Q37" s="71"/>
+      <c r="Q37" s="39"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="73" t="s">
-        <v>75</v>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="D38" s="29">
         <v>0</v>
@@ -2686,12 +2763,12 @@
       <c r="P38" s="29">
         <v>0</v>
       </c>
-      <c r="Q38" s="71"/>
+      <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="73" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="29">
@@ -2733,12 +2810,12 @@
       <c r="P39" s="29">
         <v>0</v>
       </c>
-      <c r="Q39" s="71"/>
+      <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="73" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="29">
@@ -2780,79 +2857,79 @@
       <c r="P40" s="29">
         <v>0</v>
       </c>
-      <c r="Q40" s="71"/>
+      <c r="Q40" s="39"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="76">
-        <v>0</v>
-      </c>
-      <c r="E41" s="76">
-        <v>0</v>
-      </c>
-      <c r="F41" s="76">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="48">
+        <v>0</v>
+      </c>
+      <c r="E41" s="48">
+        <v>0</v>
+      </c>
+      <c r="F41" s="48">
         <v>2</v>
       </c>
-      <c r="G41" s="76">
-        <v>0</v>
-      </c>
-      <c r="H41" s="76">
-        <v>0</v>
-      </c>
-      <c r="I41" s="76">
-        <v>0</v>
-      </c>
-      <c r="J41" s="76">
+      <c r="G41" s="48">
+        <v>0</v>
+      </c>
+      <c r="H41" s="48">
+        <v>0</v>
+      </c>
+      <c r="I41" s="48">
+        <v>0</v>
+      </c>
+      <c r="J41" s="48">
         <v>1</v>
       </c>
-      <c r="K41" s="76">
-        <v>0</v>
-      </c>
-      <c r="L41" s="76">
-        <v>0</v>
-      </c>
-      <c r="M41" s="76">
-        <v>0</v>
-      </c>
-      <c r="N41" s="76">
-        <v>0</v>
-      </c>
-      <c r="O41" s="76">
-        <v>0</v>
-      </c>
-      <c r="P41" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="71"/>
+      <c r="K41" s="48">
+        <v>0</v>
+      </c>
+      <c r="L41" s="48">
+        <v>0</v>
+      </c>
+      <c r="M41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48">
+        <v>0</v>
+      </c>
+      <c r="O41" s="48">
+        <v>0</v>
+      </c>
+      <c r="P41" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="39"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="71"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="73" t="s">
-        <v>78</v>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="D43" s="30">
         <v>0</v>
@@ -2893,12 +2970,12 @@
       <c r="P43" s="30">
         <v>0</v>
       </c>
-      <c r="Q43" s="71"/>
+      <c r="Q43" s="39"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="79" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="30">
@@ -2940,20 +3017,150 @@
       <c r="P44" s="30">
         <v>0</v>
       </c>
-      <c r="Q44" s="71"/>
+      <c r="Q44" s="39"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
-        <v>92</v>
+      <c r="A46" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>50</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>51</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>52</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>55</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>60</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>61</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>62</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>80</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A2:B21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H21"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A24:B44"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="P41:P42"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
@@ -2970,39 +3177,11 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A24:B44"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A2:B21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H21"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3011,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,10 +3206,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -3052,74 +3231,74 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="85">
-        <v>30</v>
-      </c>
-      <c r="D3" s="85" t="s">
+      <c r="B3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="47">
+        <v>60</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="47" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84">
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="47">
+        <v>40</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>104</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="47">
+        <v>30</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
       <c r="C6" s="2">
-        <v>710</v>
+        <v>113</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -3128,17 +3307,17 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>93</v>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -3147,32 +3326,36 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="27">
-        <v>1500</v>
+      <c r="B8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="36">
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="28" t="s">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
-        <v>1630</v>
+        <v>456</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -3180,167 +3363,136 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2">
+        <v>196</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="27">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="2">
+        <v>1630</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1793</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1630</v>
-      </c>
-      <c r="F13" s="15">
-        <f>D13-E13</f>
-        <v>163</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="14">
-        <v>229</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f>D14-E14</f>
-        <v>229</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>57</v>
+      <c r="C14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="17"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>3</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="14">
-        <v>200</v>
-      </c>
-      <c r="D15" s="14">
-        <v>178</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" ref="D15:F15" si="0">D15</f>
-        <v>178</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="58"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="17"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>4</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="14">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="14">
-        <v>52</v>
+        <v>1793</v>
       </c>
       <c r="E16" s="14">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="F16" s="15">
         <f>D16-E16</f>
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -3349,26 +3501,26 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>5</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="14">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="14">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
       </c>
       <c r="F17" s="15">
         <f>D17-E17</f>
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -3377,26 +3529,26 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>6</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="14">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="15">
-        <f>D18-E18</f>
-        <v>2</v>
+        <f t="shared" ref="F18" si="0">D18</f>
+        <v>178</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -3405,78 +3557,162 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>7</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="14">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E19" s="14">
         <v>0</v>
       </c>
       <c r="F19" s="15">
         <f>D19-E19</f>
+        <v>52</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>5</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14">
+        <v>200</v>
+      </c>
+      <c r="D20" s="14">
+        <v>22</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f>D20-E20</f>
+        <v>22</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>6</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14">
+        <v>30</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f>D21-E21</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>7</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="14">
+        <v>30</v>
+      </c>
+      <c r="D22" s="14">
         <v>3</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="16">
-        <f>SUM(C13:C19)</f>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <f>D22-E22</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="16">
+        <f>SUM(C16:C22)</f>
         <v>3760</v>
       </c>
-      <c r="D20" s="16">
-        <f>SUM(D13:D19)</f>
+      <c r="D23" s="16">
+        <f>SUM(D16:D22)</f>
         <v>2279</v>
       </c>
-      <c r="E20" s="16">
-        <f>SUM(E13:E19)</f>
+      <c r="E23" s="16">
+        <f>SUM(E16:E22)</f>
         <v>1630</v>
       </c>
-      <c r="F20" s="12">
-        <f>SUM(F13:F19)</f>
+      <c r="F23" s="12">
+        <f>SUM(F16:F22)</f>
         <v>649</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="18"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3487,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,50 +3741,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="A1" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
@@ -3561,9 +3797,9 @@
       <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -3724,166 +3960,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="B9" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="4">
